--- a/soil FDR/docs/工作簿1.xlsx
+++ b/soil FDR/docs/工作簿1.xlsx
@@ -4,83 +4,24 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16188" windowHeight="9420"/>
+    <workbookView windowWidth="24860" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <r>
-      <t>R</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF404040"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF404040"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>=R</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF404040"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF404040"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>[1+aT-bT2-cT3 (T-100)]</t>
-    </r>
-  </si>
-  <si>
-    <t>2.8048x - 287.22</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,21 +30,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color rgb="FF404040"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -117,35 +52,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -156,38 +62,21 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,7 +92,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,6 +100,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,8 +121,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,13 +152,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF404040"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -254,7 +183,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -266,7 +315,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,67 +357,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,194 +367,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -548,47 +386,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -617,6 +419,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -627,232 +459,226 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -951,11 +777,17 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.198041588733634"/>
+                  <c:y val="-0.0145605824232969"/>
+                </c:manualLayout>
+              </c:layout>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -986,108 +818,414 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$A$2:$A$16</c:f>
+              <c:f>Sheet2!$A$1:$A$192</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="192"/>
                 <c:pt idx="0">
+                  <c:v>18.52</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.83</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31.34</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.54</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39.72</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43.88</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>52.11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>56.19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60.26</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>64.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>68.33</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>72.33</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>76.33</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>80.31</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="16">
+                  <c:v>84.27</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>88.22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>92.16</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>96.09</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="21">
+                  <c:v>103.9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>107.79</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>111.67</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>115.54</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>119.4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="26">
+                  <c:v>123.24</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>127.08</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>130.9</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>134.71</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>138.51</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="31">
+                  <c:v>142.29</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>146.07</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>149.83</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>156.58</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>157.33</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="36">
+                  <c:v>161.05</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>164.77</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>168.48</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>172.17</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>175.86</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="41">
+                  <c:v>179.53</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>183.19</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>186.84</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>190.47</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>194.1</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="46">
+                  <c:v>197.71</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>201.31</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>204.9</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>208.48</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>212.05</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="51">
+                  <c:v>215.61</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>219.15</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>222.68</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>226.21</c:v>
+                </c:pt>
+                <c:pt idx="55">
                   <c:v>229.72</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="56">
+                  <c:v>233.21</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>236.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>240.18</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>243.64</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>247.09</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>264.18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>280.98</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>297.49</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>313.71</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>329.64</c:v>
+                <c:pt idx="61">
+                  <c:v>250.53</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>253.96</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>257.38</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>110.12</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>112.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$2:$B$16</c:f>
+              <c:f>Sheet2!$B$1:$B$192</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="192"/>
                 <c:pt idx="0">
+                  <c:v>-200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-190</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-180</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-170</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-160</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-140</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-130</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-120</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-110</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-90</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-60</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>-50</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="16">
+                  <c:v>-40</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="21">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="26">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="31">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>150</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="36">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>200</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="41">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>250</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="46">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>300</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="51">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="55">
                   <c:v>350</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="56">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>400</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>550</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>650</c:v>
+                <c:pt idx="61">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>430</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1102,11 +1240,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="612748010"/>
-        <c:axId val="567520862"/>
+        <c:axId val="476024771"/>
+        <c:axId val="55516078"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="612748010"/>
+        <c:axId val="476024771"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1162,12 +1300,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="567520862"/>
+        <c:crossAx val="55516078"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="567520862"/>
+        <c:axId val="55516078"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1223,7 +1361,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="612748010"/>
+        <c:crossAx val="476024771"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1831,25 +1969,25 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>492760</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>48260</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>187960</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>168275</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>344805</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>112395</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="图表 5"/>
+        <xdr:cNvPr id="5" name="图表 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2603500" y="1397000"/>
-        <a:ext cx="4572000" cy="2743200"/>
+        <a:off x="2740660" y="901065"/>
+        <a:ext cx="6085205" cy="3691890"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2118,242 +2256,952 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:T76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.88461538461539" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="50.7777777777778" customWidth="1"/>
-    <col min="2" max="3" width="24.4444444444444" customWidth="1"/>
-    <col min="4" max="5" width="12.8888888888889"/>
+    <col min="7" max="7" width="12.9230769230769"/>
+    <col min="20" max="20" width="14.0769230769231"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4">
-      <c r="B1" t="s">
+    <row r="1" spans="1:20">
+      <c r="A1">
+        <v>18.52</v>
+      </c>
+      <c r="B1">
+        <v>-200</v>
+      </c>
+      <c r="Q1">
+        <v>0.0012</v>
+      </c>
+      <c r="R1">
+        <v>2.31</v>
+      </c>
+      <c r="S1">
+        <v>-243.61</v>
+      </c>
+      <c r="T1">
+        <f>(Q$1)*A1*A1+(R$1)*A1+(S$1)</f>
+        <v>-200.41721152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2">
+        <v>22.83</v>
+      </c>
+      <c r="B2">
+        <f>B1+10</f>
+        <v>-190</v>
+      </c>
+      <c r="Q2">
+        <v>0.0012</v>
+      </c>
+      <c r="R2">
+        <v>2.3162</v>
+      </c>
+      <c r="S2">
+        <v>-243.61</v>
+      </c>
+      <c r="T2">
+        <f t="shared" ref="T2:T20" si="0">(Q$1)*A2*A2+(R$1)*A2+(S$1)</f>
+        <v>-190.24724932</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3">
+        <v>27.1</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B66" si="1">B2+10</f>
+        <v>-180</v>
+      </c>
+      <c r="T3">
+        <f t="shared" si="0"/>
+        <v>-180.127708</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4">
+        <v>31.34</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="1"/>
+        <v>-170</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="0"/>
+        <v>-170.03596528</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5">
+        <v>35.54</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="1"/>
+        <v>-160</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="0"/>
+        <v>-159.99689008</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6">
+        <v>39.72</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="1"/>
+        <v>-150</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="0"/>
+        <v>-149.96358592</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7">
+        <v>43.88</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="1"/>
+        <v>-140</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="0"/>
+        <v>-139.93665472</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8">
+        <v>48</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="1"/>
+        <v>-130</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="0"/>
+        <v>-129.9652</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9">
+        <v>52.11</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="1"/>
+        <v>-120</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="0"/>
+        <v>-119.97735748</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10">
+        <v>56.19</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="1"/>
+        <v>-110</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="0"/>
+        <v>-110.02232068</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11">
+        <v>60.26</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="1"/>
+        <v>-100</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="0"/>
+        <v>-100.05187888</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12">
+        <v>64.3</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="1"/>
+        <v>-90</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="0"/>
+        <v>-90.115612</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13">
+        <v>68.33</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="1"/>
+        <v>-80</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="0"/>
+        <v>-80.16491332</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14">
+        <v>72.33</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="1"/>
+        <v>-70</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="0"/>
+        <v>-70.24974532</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15">
+        <v>76.33</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="1"/>
+        <v>-60</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="0"/>
+        <v>-60.29617732</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16">
+        <v>80.31</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="1"/>
+        <v>-50</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="0"/>
+        <v>-50.35426468</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17">
+        <v>84.27</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="1"/>
+        <v>-40</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="0"/>
+        <v>-40.42458052</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18">
+        <v>88.22</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="1"/>
+        <v>-30</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="0"/>
+        <v>-30.48247792</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19">
+        <v>92.16</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="1"/>
+        <v>-20</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="0"/>
+        <v>-20.52824128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20">
+        <v>96.09</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="1"/>
+        <v>-10</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="0"/>
+        <v>-10.56215428</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21">
+        <v>100</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" ht="22.2" spans="1:5">
-      <c r="A2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="7">
-        <f>3.90802/1000</f>
-        <v>0.00390802</v>
-      </c>
-      <c r="C2" s="7">
-        <f>5.80195/10000000</f>
-        <v>5.80195e-7</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6">
-        <v>0.0539927483</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7">
-        <v>1.60285711</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8">
-        <f>A7/3.3</f>
-        <v>0.485714275757576</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9">
-        <f>A6/A8*1000</f>
-        <v>111.16154289636</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12">
-        <v>1.60285711</v>
-      </c>
-      <c r="C12">
-        <v>1.65684986</v>
-      </c>
-      <c r="D12">
-        <f>(C12-B12)/(B12/3.3)*1000</f>
-        <v>111.16154639636</v>
-      </c>
-      <c r="E12">
-        <f>A13*D12+A14</f>
-        <v>24.5659053325092</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13">
-        <v>2.8048</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14">
-        <v>-287.22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A2:B16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1" width="13"/>
-  </cols>
-  <sheetData>
-    <row r="2" ht="22.95" spans="1:2">
-      <c r="A2" s="1">
-        <v>80.31</v>
-      </c>
-      <c r="B2" s="2">
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="3" ht="22.95" spans="1:2">
-      <c r="A3" s="3">
+      <c r="T21">
+        <f t="shared" ref="T21:T36" si="2">(Q$1)*A21*A21+(R$1)*A21+(S$1)</f>
+        <v>-0.610000000000014</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22">
+        <v>103.9</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="2"/>
+        <v>9.353252</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23">
+        <v>107.79</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="2"/>
+        <v>19.32732092</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24">
+        <v>111.67</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="2"/>
+        <v>29.31192668</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25">
+        <v>115.54</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="2"/>
+        <v>39.30678992</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26">
+        <v>119.4</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="2"/>
+        <v>49.311632</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27">
+        <v>123.24</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="2"/>
+        <v>59.30011712</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28">
+        <v>127.08</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="2"/>
+        <v>69.32399168</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29">
+        <v>130.9</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="2"/>
+        <v>79.330772</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30">
+        <v>134.71</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="2"/>
+        <v>89.34624092</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31">
+        <v>138.51</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" ht="22.95" spans="1:2">
-      <c r="A4" s="3">
-        <v>119.4</v>
-      </c>
-      <c r="B4" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" ht="22.95" spans="1:2">
-      <c r="A5" s="3">
-        <v>138.51</v>
-      </c>
-      <c r="B5" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" ht="22.95" spans="1:2">
-      <c r="A6" s="3">
+      <c r="T31">
+        <f t="shared" si="2"/>
+        <v>99.37012412</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32">
+        <v>142.29</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="2"/>
+        <v>109.37563292</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33">
+        <v>146.07</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="2"/>
+        <v>119.41543388</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34">
+        <v>149.83</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="2"/>
+        <v>129.43613468</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35">
+        <v>156.58</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="1"/>
+        <v>140</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="2"/>
+        <v>147.51055568</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36">
         <v>157.33</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B36">
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
-    </row>
-    <row r="7" ht="22.95" spans="1:2">
-      <c r="A7" s="3">
+      <c r="T36">
+        <f t="shared" si="2"/>
+        <v>149.52557468</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37">
+        <v>161.05</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
+      <c r="T37">
+        <f t="shared" ref="T37:T50" si="3">(Q$1)*A37*A37+(R$1)*A37+(S$1)</f>
+        <v>159.540023</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38">
+        <v>164.77</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="1"/>
+        <v>170</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="3"/>
+        <v>169.58768348</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39">
+        <v>168.48</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="3"/>
+        <v>179.64141248</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40">
+        <v>172.17</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="1"/>
+        <v>190</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="3"/>
+        <v>189.67371068</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41">
         <v>175.86</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B41">
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
-    </row>
-    <row r="8" ht="22.95" spans="1:2">
-      <c r="A8" s="3">
+      <c r="T41">
+        <f t="shared" si="3"/>
+        <v>199.73868752</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42">
+        <v>179.53</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="1"/>
+        <v>210</v>
+      </c>
+      <c r="T42">
+        <f t="shared" si="3"/>
+        <v>209.78152508</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20">
+      <c r="A43">
+        <v>183.19</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="1"/>
+        <v>220</v>
+      </c>
+      <c r="T43">
+        <f t="shared" si="3"/>
+        <v>219.82919132</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20">
+      <c r="A44">
+        <v>186.84</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="1"/>
+        <v>230</v>
+      </c>
+      <c r="T44">
+        <f t="shared" si="3"/>
+        <v>229.88142272</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20">
+      <c r="A45">
+        <v>190.47</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="1"/>
+        <v>240</v>
+      </c>
+      <c r="T45">
+        <f t="shared" si="3"/>
+        <v>239.91028508</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20">
+      <c r="A46">
         <v>194.1</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B46">
+        <f t="shared" si="1"/>
         <v>250</v>
       </c>
-    </row>
-    <row r="9" ht="22.95" spans="1:2">
-      <c r="A9" s="3">
+      <c r="T46">
+        <f t="shared" si="3"/>
+        <v>249.970772</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20">
+      <c r="A47">
+        <v>197.71</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="1"/>
+        <v>260</v>
+      </c>
+      <c r="T47">
+        <f t="shared" si="3"/>
+        <v>260.00719292</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20">
+      <c r="A48">
+        <v>201.31</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="1"/>
+        <v>270</v>
+      </c>
+      <c r="T48">
+        <f t="shared" si="3"/>
+        <v>270.04695932</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20">
+      <c r="A49">
+        <v>204.9</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="1"/>
+        <v>280</v>
+      </c>
+      <c r="T49">
+        <f t="shared" si="3"/>
+        <v>280.089812</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20">
+      <c r="A50">
+        <v>208.48</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="1"/>
+        <v>290</v>
+      </c>
+      <c r="T50">
+        <f t="shared" si="3"/>
+        <v>290.13549248</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20">
+      <c r="A51">
         <v>212.05</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B51">
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
-    </row>
-    <row r="10" ht="22.95" spans="1:2">
-      <c r="A10" s="3">
+      <c r="T51">
+        <f t="shared" ref="T51:T65" si="4">(Q$1)*A51*A51+(R$1)*A51+(S$1)</f>
+        <v>300.183743</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20">
+      <c r="A52">
+        <v>215.61</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="1"/>
+        <v>310</v>
+      </c>
+      <c r="T52">
+        <f t="shared" si="4"/>
+        <v>310.23430652</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20">
+      <c r="A53">
+        <v>219.15</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="1"/>
+        <v>320</v>
+      </c>
+      <c r="T53">
+        <f t="shared" si="4"/>
+        <v>320.258567</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20">
+      <c r="A54">
+        <v>222.68</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="1"/>
+        <v>330</v>
+      </c>
+      <c r="T54">
+        <f t="shared" si="4"/>
+        <v>330.28445888</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20">
+      <c r="A55">
+        <v>226.21</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="1"/>
+        <v>340</v>
+      </c>
+      <c r="T55">
+        <f t="shared" si="4"/>
+        <v>340.34025692</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20">
+      <c r="A56">
         <v>229.72</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B56">
+        <f t="shared" si="1"/>
         <v>350</v>
       </c>
-    </row>
-    <row r="11" ht="22.95" spans="1:2">
-      <c r="A11" s="3">
+      <c r="T56">
+        <f t="shared" si="4"/>
+        <v>350.36873408</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20">
+      <c r="A57">
+        <v>233.21</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="1"/>
+        <v>360</v>
+      </c>
+      <c r="T57">
+        <f t="shared" si="4"/>
+        <v>360.36938492</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20">
+      <c r="A58">
+        <v>236.7</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="1"/>
+        <v>370</v>
+      </c>
+      <c r="T58">
+        <f t="shared" si="4"/>
+        <v>370.399268</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20">
+      <c r="A59">
+        <v>240.18</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="1"/>
+        <v>380</v>
+      </c>
+      <c r="T59">
+        <f t="shared" si="4"/>
+        <v>380.42951888</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20">
+      <c r="A60">
+        <v>243.64</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="1"/>
+        <v>390</v>
+      </c>
+      <c r="T60">
+        <f t="shared" si="4"/>
+        <v>390.43093952</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20">
+      <c r="A61">
         <v>247.09</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B61">
+        <f t="shared" si="1"/>
         <v>400</v>
       </c>
-    </row>
-    <row r="12" ht="22.95" spans="1:2">
-      <c r="A12" s="3">
-        <v>264.18</v>
-      </c>
-      <c r="B12" s="4">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="13" ht="22.95" spans="1:2">
-      <c r="A13" s="3">
-        <v>280.98</v>
-      </c>
-      <c r="B13" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="14" ht="22.95" spans="1:2">
-      <c r="A14" s="3">
-        <v>297.49</v>
-      </c>
-      <c r="B14" s="4">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="15" ht="22.95" spans="1:2">
-      <c r="A15" s="3">
-        <v>313.71</v>
-      </c>
-      <c r="B15" s="4">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="16" ht="22.2" spans="1:2">
-      <c r="A16" s="5">
-        <v>329.64</v>
-      </c>
-      <c r="B16" s="6">
-        <v>650</v>
+      <c r="T61">
+        <f t="shared" si="4"/>
+        <v>400.43206172</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20">
+      <c r="A62">
+        <v>250.53</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="1"/>
+        <v>410</v>
+      </c>
+      <c r="T62">
+        <f t="shared" si="4"/>
+        <v>410.43263708</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20">
+      <c r="A63">
+        <v>253.96</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="1"/>
+        <v>420</v>
+      </c>
+      <c r="T63">
+        <f t="shared" si="4"/>
+        <v>420.43241792</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20">
+      <c r="A64">
+        <v>257.38</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="1"/>
+        <v>430</v>
+      </c>
+      <c r="T64">
+        <f t="shared" si="4"/>
+        <v>430.43115728</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20">
+      <c r="A65">
+        <v>110.12</v>
+      </c>
+      <c r="B65"/>
+      <c r="T65">
+        <f t="shared" si="4"/>
+        <v>25.31889728</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20">
+      <c r="A66">
+        <v>113</v>
+      </c>
+      <c r="T66">
+        <f t="shared" ref="T66:T76" si="5">(Q$1)*A66*A66+(R$1)*A66+(S$1)</f>
+        <v>32.7428</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20">
+      <c r="A67">
+        <v>112</v>
+      </c>
+      <c r="T67">
+        <f t="shared" si="5"/>
+        <v>30.1628</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20">
+      <c r="A68">
+        <v>112.4</v>
+      </c>
+      <c r="T68">
+        <f t="shared" si="5"/>
+        <v>31.194512</v>
+      </c>
+    </row>
+    <row r="69" spans="20:20">
+      <c r="T69">
+        <f t="shared" si="5"/>
+        <v>-243.61</v>
+      </c>
+    </row>
+    <row r="70" spans="20:20">
+      <c r="T70">
+        <f t="shared" si="5"/>
+        <v>-243.61</v>
+      </c>
+    </row>
+    <row r="71" spans="20:20">
+      <c r="T71">
+        <f t="shared" si="5"/>
+        <v>-243.61</v>
+      </c>
+    </row>
+    <row r="72" spans="20:20">
+      <c r="T72">
+        <f t="shared" si="5"/>
+        <v>-243.61</v>
+      </c>
+    </row>
+    <row r="73" spans="20:20">
+      <c r="T73">
+        <f t="shared" si="5"/>
+        <v>-243.61</v>
+      </c>
+    </row>
+    <row r="74" spans="20:20">
+      <c r="T74">
+        <f t="shared" si="5"/>
+        <v>-243.61</v>
+      </c>
+    </row>
+    <row r="75" spans="20:20">
+      <c r="T75">
+        <f t="shared" si="5"/>
+        <v>-243.61</v>
+      </c>
+    </row>
+    <row r="76" spans="20:20">
+      <c r="T76">
+        <f t="shared" si="5"/>
+        <v>-243.61</v>
       </c>
     </row>
   </sheetData>

--- a/soil FDR/docs/工作簿1.xlsx
+++ b/soil FDR/docs/工作簿1.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24860" windowHeight="9660"/>
+    <workbookView windowWidth="18468" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -17,9 +19,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -31,14 +33,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -52,8 +91,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -68,25 +129,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -105,22 +160,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -129,46 +168,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,13 +185,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -201,25 +209,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -231,85 +233,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,13 +263,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,25 +299,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,26 +382,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -419,17 +403,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -451,6 +444,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -459,168 +476,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -631,54 +633,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1025,6 +1027,9 @@
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>112.4</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>110</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1409,7 +1414,825 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.500512838</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.49390471</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.506959678</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.528073284</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.559179498</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.596410274</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.65523809333333</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.715194154</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>18.54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.58</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34.82</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47.74</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54.34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>68.24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>74.8666666666667</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80.88</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="292770563"/>
+        <c:axId val="831330815"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="292770563"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="831330815"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="831330815"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="292770563"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$E$1:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.5062</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.506637336</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.509538436</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.526945068</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.529201506</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.541692283</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.57315540285714</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.62507588428571</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$F$1:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.2142857142857</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26.9142857142857</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="910937774"/>
+        <c:axId val="740152320"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="910937774"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="740152320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="740152320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="910937774"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1965,6 +2788,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1986,8 +3841,78 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2740660" y="901065"/>
-        <a:ext cx="6085205" cy="3691890"/>
+        <a:off x="2832100" y="779145"/>
+        <a:ext cx="6598285" cy="3173730"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>340360</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>40640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>370840</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>40640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="3327400" y="1397000"/>
+        <a:ext cx="4572000" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>683895</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>116840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>81280</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>78105</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="图表 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="3609975" y="1762760"/>
+        <a:ext cx="5432425" cy="3984625"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2256,18 +4181,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T76"/>
+  <dimension ref="A1:T81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="H78" sqref="H78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88461538461539" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="7" max="7" width="12.9230769230769"/>
-    <col min="20" max="20" width="14.0769230769231"/>
+    <col min="7" max="7" width="12.9259259259259"/>
+    <col min="8" max="8" width="12.8888888888889"/>
+    <col min="20" max="20" width="14.0740740740741"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -3123,7 +5049,6 @@
       <c r="A65">
         <v>110.12</v>
       </c>
-      <c r="B65"/>
       <c r="T65">
         <f t="shared" si="4"/>
         <v>25.31889728</v>
@@ -3168,10 +5093,13 @@
         <v>-243.61</v>
       </c>
     </row>
-    <row r="71" spans="20:20">
+    <row r="71" spans="1:20">
+      <c r="A71">
+        <v>110</v>
+      </c>
       <c r="T71">
         <f t="shared" si="5"/>
-        <v>-243.61</v>
+        <v>25.01</v>
       </c>
     </row>
     <row r="72" spans="20:20">
@@ -3198,10 +5126,1021 @@
         <v>-243.61</v>
       </c>
     </row>
-    <row r="76" spans="20:20">
+    <row r="76" spans="7:20">
+      <c r="G76">
+        <v>1.458</v>
+      </c>
+      <c r="H76">
+        <f>G76/499</f>
+        <v>0.00292184368737475</v>
+      </c>
       <c r="T76">
         <f t="shared" si="5"/>
         <v>-243.61</v>
+      </c>
+    </row>
+    <row r="77" spans="7:20">
+      <c r="G77">
+        <v>1.779</v>
+      </c>
+      <c r="H77">
+        <f>G77/H76</f>
+        <v>608.862139917695</v>
+      </c>
+      <c r="T77">
+        <f>(Q$1)*A77*A77+(R$1)*A77+(S$1)</f>
+        <v>-243.61</v>
+      </c>
+    </row>
+    <row r="78" spans="8:20">
+      <c r="H78">
+        <f>H77-499</f>
+        <v>109.862139917695</v>
+      </c>
+      <c r="T78">
+        <f>(Q$1)*A78*A78+(R$1)*A78+(S$1)</f>
+        <v>-243.61</v>
+      </c>
+    </row>
+    <row r="79" spans="20:20">
+      <c r="T79">
+        <f>(Q$1)*A79*A79+(R$1)*A79+(S$1)</f>
+        <v>-243.61</v>
+      </c>
+    </row>
+    <row r="80" spans="7:20">
+      <c r="G80">
+        <v>1.779</v>
+      </c>
+      <c r="T80">
+        <f>(Q$1)*A80*A80+(R$1)*A80+(S$1)</f>
+        <v>-243.61</v>
+      </c>
+    </row>
+    <row r="81" spans="7:7">
+      <c r="G81">
+        <v>1.458</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="12.8888888888889"/>
+    <col min="4" max="5" width="12.8888888888889"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="6" customHeight="1"/>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1.50051284</v>
+      </c>
+      <c r="B2">
+        <v>18.5</v>
+      </c>
+      <c r="D2">
+        <f>AVERAGE(A2:A6)</f>
+        <v>1.500512838</v>
+      </c>
+      <c r="E2">
+        <f>AVERAGE(B2:B6)</f>
+        <v>18.54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>1.49970698</v>
+      </c>
+      <c r="B3">
+        <v>18.6</v>
+      </c>
+      <c r="D3">
+        <f>AVERAGE(A9:A13)</f>
+        <v>1.49390471</v>
+      </c>
+      <c r="E3">
+        <f>AVERAGE(B9:B13)</f>
+        <v>23.58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>1.49890113</v>
+      </c>
+      <c r="B4">
+        <v>18.7</v>
+      </c>
+      <c r="D4">
+        <f>AVERAGE(A15:A19)</f>
+        <v>1.506959678</v>
+      </c>
+      <c r="E4">
+        <f>AVERAGE(B15:B19)</f>
+        <v>34.82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>1.50131869</v>
+      </c>
+      <c r="B5">
+        <v>18.5</v>
+      </c>
+      <c r="D5">
+        <f>AVERAGE(A21:A25)</f>
+        <v>1.528073284</v>
+      </c>
+      <c r="E5">
+        <f>AVERAGE(B21:B25)</f>
+        <v>47.74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>1.50212455</v>
+      </c>
+      <c r="B6">
+        <v>18.4</v>
+      </c>
+      <c r="D6">
+        <f>AVERAGE(A28:A32)</f>
+        <v>1.559179498</v>
+      </c>
+      <c r="E6">
+        <f>AVERAGE(B28:B32)</f>
+        <v>54.34</v>
+      </c>
+    </row>
+    <row r="7" spans="4:5">
+      <c r="D7">
+        <f>AVERAGE(A35:A39)</f>
+        <v>1.596410274</v>
+      </c>
+      <c r="E7">
+        <f>AVERAGE(B35:B39)</f>
+        <v>68.24</v>
+      </c>
+    </row>
+    <row r="8" spans="4:5">
+      <c r="D8">
+        <f>AVERAGE(A42:A47)</f>
+        <v>1.65523809333333</v>
+      </c>
+      <c r="E8">
+        <f>AVERAGE(B42:B47)</f>
+        <v>74.8666666666667</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>1.49326003</v>
+      </c>
+      <c r="B9">
+        <v>23.5</v>
+      </c>
+      <c r="D9">
+        <f>AVERAGE(A49:A53)</f>
+        <v>1.715194154</v>
+      </c>
+      <c r="E9">
+        <f>AVERAGE(B49:B53)</f>
+        <v>80.88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>1.49406588</v>
+      </c>
+      <c r="B10">
+        <v>23.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>1.49406588</v>
+      </c>
+      <c r="B11">
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>1.49406588</v>
+      </c>
+      <c r="B12">
+        <v>23.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>1.49406588</v>
+      </c>
+      <c r="B13">
+        <v>23.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>1.50615382</v>
+      </c>
+      <c r="B15">
+        <v>34.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>1.50695968</v>
+      </c>
+      <c r="B16">
+        <v>35.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>1.50695968</v>
+      </c>
+      <c r="B17">
+        <v>34.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>1.50695968</v>
+      </c>
+      <c r="B18">
+        <v>34.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>1.50776553</v>
+      </c>
+      <c r="B19">
+        <v>35.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>1.5246886</v>
+      </c>
+      <c r="B21">
+        <v>47.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>1.52871799</v>
+      </c>
+      <c r="B22">
+        <v>47.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>1.52871799</v>
+      </c>
+      <c r="B23">
+        <v>48.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>1.52952385</v>
+      </c>
+      <c r="B24">
+        <v>47.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>1.52871799</v>
+      </c>
+      <c r="B25">
+        <v>47.5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27">
+        <v>59.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>1.55772889</v>
+      </c>
+      <c r="B28">
+        <v>54.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>1.55934072</v>
+      </c>
+      <c r="B29">
+        <v>54.9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>1.56014657</v>
+      </c>
+      <c r="B30">
+        <v>53.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>1.56014657</v>
+      </c>
+      <c r="B31">
+        <v>54.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>1.55853474</v>
+      </c>
+      <c r="B32">
+        <v>54.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>1.59560442</v>
+      </c>
+      <c r="B35">
+        <v>68.7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>1.59721613</v>
+      </c>
+      <c r="B36">
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>1.59721613</v>
+      </c>
+      <c r="B37">
+        <v>68.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>1.59641027</v>
+      </c>
+      <c r="B38">
+        <v>67.8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>1.59560442</v>
+      </c>
+      <c r="B39">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41">
+        <v>71.3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>1.64798534</v>
+      </c>
+      <c r="B42">
+        <v>74.8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>1.64959705</v>
+      </c>
+      <c r="B43">
+        <v>74.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <v>1.64959705</v>
+      </c>
+      <c r="B44">
+        <v>74.6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45">
+        <v>1.6632967</v>
+      </c>
+      <c r="B45">
+        <v>74.4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46">
+        <v>1.6632967</v>
+      </c>
+      <c r="B46">
+        <v>75.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47">
+        <v>1.65765572</v>
+      </c>
+      <c r="B47">
+        <v>75.7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49">
+        <v>1.70761907</v>
+      </c>
+      <c r="B49">
+        <v>81.2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50">
+        <v>1.70923078</v>
+      </c>
+      <c r="B50">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51">
+        <v>1.71567762</v>
+      </c>
+      <c r="B51">
+        <v>80.6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52">
+        <v>1.72051287</v>
+      </c>
+      <c r="B52">
+        <v>80.4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53">
+        <v>1.72293043</v>
+      </c>
+      <c r="B53">
+        <v>81.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Q54"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="5" max="6" width="12.8888888888889"/>
+    <col min="16" max="16" width="14.1111111111111"/>
+    <col min="17" max="17" width="12.8888888888889"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="5:16">
+      <c r="E1">
+        <v>1.5062</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
+      <c r="P1">
+        <f>L$2*E1*E1+M$2*E1+N$2</f>
+        <v>2.47229959600099</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2">
+        <v>1.50695968</v>
+      </c>
+      <c r="C2">
+        <v>3.5</v>
+      </c>
+      <c r="E2">
+        <f>AVERAGE(A2:A6)</f>
+        <v>1.506637336</v>
+      </c>
+      <c r="F2">
+        <f>AVERAGE(C2:C6)</f>
+        <v>3.6</v>
+      </c>
+      <c r="L2">
+        <v>-2874.1</v>
+      </c>
+      <c r="M2">
+        <v>9204.2</v>
+      </c>
+      <c r="N2">
+        <v>-7340.6</v>
+      </c>
+      <c r="P2">
+        <f>L$2*E2*E2+M$2*E2+N$2</f>
+        <v>2.71064955832298</v>
+      </c>
+      <c r="Q2">
+        <f>L$3*E2+M$3</f>
+        <v>7.53100660672004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3">
+        <v>1.50695968</v>
+      </c>
+      <c r="C3">
+        <v>3.4</v>
+      </c>
+      <c r="E3">
+        <f>AVERAGE(A8:A12)</f>
+        <v>1.509538436</v>
+      </c>
+      <c r="F3">
+        <f>AVERAGE(C8:C12)</f>
+        <v>5.6</v>
+      </c>
+      <c r="L3">
+        <v>197.52</v>
+      </c>
+      <c r="M3">
+        <v>-290.06</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P8" si="0">L$2*E3*E3+M$2*E3+N$2</f>
+        <v>4.26392522817423</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q8" si="1">L$3*E3+M$3</f>
+        <v>8.10403187872004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4">
+        <v>1.50615382</v>
+      </c>
+      <c r="C4">
+        <v>3.5</v>
+      </c>
+      <c r="E4">
+        <f>AVERAGE(A14:A18)</f>
+        <v>1.526945068</v>
+      </c>
+      <c r="F4">
+        <f>AVERAGE(C14:C18)</f>
+        <v>9.36</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>12.5676330198394</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="1"/>
+        <v>11.54218983136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5">
+        <v>1.50695968</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <f>AVERAGE(A20:A24)</f>
+        <v>1.529201506</v>
+      </c>
+      <c r="F5">
+        <f>AVERAGE(C20:C24)</f>
+        <v>14.2</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>13.5165309326367</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="1"/>
+        <v>11.98788146512</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6">
+        <v>1.50615382</v>
+      </c>
+      <c r="C6">
+        <v>3.6</v>
+      </c>
+      <c r="E6">
+        <f>AVERAGE(A27:A36)</f>
+        <v>1.541692283</v>
+      </c>
+      <c r="F6">
+        <f>AVERAGE(C27:C36)</f>
+        <v>21.32</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>18.2398453219794</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="1"/>
+        <v>14.4550597381601</v>
+      </c>
+    </row>
+    <row r="7" spans="5:17">
+      <c r="E7">
+        <f>AVERAGE(A39:A45)</f>
+        <v>1.57315540285714</v>
+      </c>
+      <c r="F7">
+        <f>AVERAGE(C39:C45)</f>
+        <v>24.2142857142857</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>26.1627706835679</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="1"/>
+        <v>20.6696551723429</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8">
+        <v>1.50776553</v>
+      </c>
+      <c r="C8">
+        <v>5.4</v>
+      </c>
+      <c r="E8">
+        <f>AVERAGE(A48:A54)</f>
+        <v>1.62507588428571</v>
+      </c>
+      <c r="F8">
+        <f>AVERAGE(C48:C54)</f>
+        <v>26.9142857142857</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>26.7943032591766</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="1"/>
+        <v>30.9249886641143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9">
+        <v>1.50776553</v>
+      </c>
+      <c r="C9">
+        <v>5.1</v>
+      </c>
+      <c r="E9">
+        <v>1.52</v>
+      </c>
+      <c r="F9"/>
+      <c r="P9">
+        <f>L$2*E9*E9+M$2*E9+N$2</f>
+        <v>9.46336000000156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10">
+        <v>1.51260078</v>
+      </c>
+      <c r="C10">
+        <v>5.6</v>
+      </c>
+      <c r="E10">
+        <v>1.50776553</v>
+      </c>
+      <c r="P10">
+        <f>L$2*E10*E10+M$2*E10+N$2</f>
+        <v>3.32044374359157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>1.50937724</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>1.5101831</v>
+      </c>
+      <c r="C12">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>1.52791214</v>
+      </c>
+      <c r="C14">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>1.52710629</v>
+      </c>
+      <c r="C15">
+        <v>9.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>1.52710629</v>
+      </c>
+      <c r="C16">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>1.52630031</v>
+      </c>
+      <c r="C17">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>1.52630031</v>
+      </c>
+      <c r="C18">
+        <v>8.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>1.52871799</v>
+      </c>
+      <c r="C20">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>1.52952385</v>
+      </c>
+      <c r="C21">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>1.52952385</v>
+      </c>
+      <c r="C22">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>1.52791214</v>
+      </c>
+      <c r="C23">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>1.5303297</v>
+      </c>
+      <c r="C24">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>1.54241753</v>
+      </c>
+      <c r="C27">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>1.53999996</v>
+      </c>
+      <c r="C28">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>1.54080582</v>
+      </c>
+      <c r="C29">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>1.53274727</v>
+      </c>
+      <c r="C30">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>1.53919411</v>
+      </c>
+      <c r="C31">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>1.54080582</v>
+      </c>
+      <c r="C32">
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>1.54080582</v>
+      </c>
+      <c r="C33">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>1.55369961</v>
+      </c>
+      <c r="C34">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>1.54402936</v>
+      </c>
+      <c r="C35">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>1.54241753</v>
+      </c>
+      <c r="C36">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>1.57868135</v>
+      </c>
+      <c r="C39">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>1.56901097</v>
+      </c>
+      <c r="C40">
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>1.57062268</v>
+      </c>
+      <c r="C41">
+        <v>24.1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>1.56981683</v>
+      </c>
+      <c r="C42">
+        <v>24.6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>1.56981683</v>
+      </c>
+      <c r="C43">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>1.56981683</v>
+      </c>
+      <c r="C44">
+        <v>24.1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>1.58432233</v>
+      </c>
+      <c r="C45">
+        <v>24.8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>1.627033</v>
+      </c>
+      <c r="C48">
+        <v>26.3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>1.62783885</v>
+      </c>
+      <c r="C49">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>1.63025641</v>
+      </c>
+      <c r="C50">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>1.62783885</v>
+      </c>
+      <c r="C51">
+        <v>27.7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>1.61575091</v>
+      </c>
+      <c r="C52">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>1.63025641</v>
+      </c>
+      <c r="C53">
+        <v>28.3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>1.61655676</v>
+      </c>
+      <c r="C54">
+        <v>26.1</v>
       </c>
     </row>
   </sheetData>
